--- a/data/beds-vents-1116.xlsx
+++ b/data/beds-vents-1116.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="644">
   <si>
     <t>DATE</t>
   </si>
@@ -1943,6 +1943,9 @@
   </si>
   <si>
     <t>2021-11-14</t>
+  </si>
+  <si>
+    <t>2021-11-15</t>
   </si>
 </sst>
 </file>
@@ -2300,7 +2303,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O629"/>
+  <dimension ref="A1:O630"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31041,6 +31044,53 @@
         <v>75.22</v>
       </c>
     </row>
+    <row r="630" spans="1:15">
+      <c r="A630" t="s">
+        <v>643</v>
+      </c>
+      <c r="B630">
+        <v>2261</v>
+      </c>
+      <c r="C630">
+        <v>367</v>
+      </c>
+      <c r="D630">
+        <v>1250</v>
+      </c>
+      <c r="E630">
+        <v>644</v>
+      </c>
+      <c r="F630">
+        <v>2778</v>
+      </c>
+      <c r="G630">
+        <v>154</v>
+      </c>
+      <c r="H630">
+        <v>551</v>
+      </c>
+      <c r="I630">
+        <v>2073</v>
+      </c>
+      <c r="J630">
+        <v>16.23</v>
+      </c>
+      <c r="K630">
+        <v>55.29</v>
+      </c>
+      <c r="L630">
+        <v>28.48</v>
+      </c>
+      <c r="M630">
+        <v>5.54</v>
+      </c>
+      <c r="N630">
+        <v>19.83</v>
+      </c>
+      <c r="O630">
+        <v>74.62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
